--- a/maze.xlsx
+++ b/maze.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tomoki/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tomoki/Desktop/gba-maze/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -96,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,8 +122,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF40FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,13 +154,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,6 +210,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -190,6 +236,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF40FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1959,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="AK13" sqref="AK13"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.6640625" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3812,4 +3863,396 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="99" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.6640625" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="4.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>225</v>
+      </c>
+      <c r="C1" s="1">
+        <v>226</v>
+      </c>
+      <c r="D1" s="1">
+        <v>227</v>
+      </c>
+      <c r="E1" s="1">
+        <v>228</v>
+      </c>
+      <c r="F1" s="1">
+        <v>229</v>
+      </c>
+      <c r="G1" s="1">
+        <v>230</v>
+      </c>
+      <c r="H1" s="1">
+        <v>231</v>
+      </c>
+      <c r="I1" s="1">
+        <v>232</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1">
+        <v>6</v>
+      </c>
+      <c r="S1" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>145</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+    </row>
+    <row r="3" spans="1:19" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>146</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>1</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+    </row>
+    <row r="4" spans="1:19" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>147</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1</v>
+      </c>
+      <c r="I4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+    </row>
+    <row r="5" spans="1:19" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>148</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" spans="1:19" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>149</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" spans="1:19" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>150</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+    </row>
+    <row r="8" spans="1:19" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>151</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+    </row>
+    <row r="9" spans="1:19" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>152</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>7</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+    </row>
+    <row r="12" spans="1:19" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="15"/>
+      <c r="M12" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>